--- a/src/main/resources/excel/lab/all_Ingredient_list_cn.xlsx
+++ b/src/main/resources/excel/lab/all_Ingredient_list_cn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4\Desktop\MES 정리 중\전성분,중국위생허가\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4\Desktop\MES 정리 중\시스템양식\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12000" tabRatio="758" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="12000" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="전성분표" sheetId="124" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="365">
   <si>
     <t>INCI Name</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -395,6 +395,265 @@
 3. 필름을 제거 후 제품을 눈을 중심으로 하여 피부에 밀착시킵니다.(마스크 양면 중 어느 방향으로 붙이셔도 무관합니다.)
 4. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 20~30분 후 떼어냅니다.
 5. 피부에 남아있는 잔여 에센스를 마사지 하듯 톡톡 두드려 흡수시켜 줍니다.</t>
+  </si>
+  <si>
+    <t>겔마스크-주름</t>
+  </si>
+  <si>
+    <t>피부의 주름개선에 도움을 준다.</t>
+  </si>
+  <si>
+    <t>It helps to improve skinfold.</t>
+  </si>
+  <si>
+    <t>본 품을 피부에 붙이고 20~30분 후 제거한 다음 남은 잔여물을 골고루 펴 바른다.</t>
+  </si>
+  <si>
+    <t>주름개선기능성화장품</t>
+  </si>
+  <si>
+    <t>겔마스크-미백</t>
+  </si>
+  <si>
+    <t>It helps whitening the skin.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 품을 피부에 붙이고 20~30분간 부착하고 제거한 다음 남아 있는 내용물을 골고루 펴 바른다.</t>
+  </si>
+  <si>
+    <t>미백개선기능성화장품</t>
+  </si>
+  <si>
+    <t>본 품을 피부에 붙이고 20~30분 후 제거한 다음 남은 내용물을 골고루 펴 바른다.</t>
+  </si>
+  <si>
+    <t>아이패치자타입</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 기초화장품을 이용하여 피부결을 정리해줍니다.
+3. 반드시 동봉된 위생스푼을 이용하여 아이패치를 붙여줍니다.
+4. 20~30분 후 떼어내고 피부에 남아있는 에센스를 마사지 하듯 가볍게 두드려 흡수시켜줍니다.</t>
+  </si>
+  <si>
+    <t>아이패치자타입-주름</t>
+  </si>
+  <si>
+    <t>아이패치자타입-미백</t>
+  </si>
+  <si>
+    <t>피부의 미백에 도움을 준다.</t>
+  </si>
+  <si>
+    <t>피부의 미백에 도움을 준다.
+피부의 주름개선에 도움을 준다.</t>
+  </si>
+  <si>
+    <t>미백주름개선이중기능성화장품</t>
+  </si>
+  <si>
+    <t>아이패치1회용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 후면 필름을 벗긴 후 내용물을 꺼냅니다.
+3. 내용물을 눈 주위 필요한 부위에 붙여 줍니다.
+4. 20~30분간 팩을 즐긴 후 떼어냅니다.
+5. 남은 에센스를 마사지 하듯 두드려 흡수시켜줍니다.
+</t>
+  </si>
+  <si>
+    <t>아이패치1회용-주름</t>
+  </si>
+  <si>
+    <t>아이패치1회용-미백</t>
+  </si>
+  <si>
+    <t>립패치</t>
+  </si>
+  <si>
+    <t>1. 세안후 화장수를 사용하여 피부결을 정돈해 줍니다.
+2. 파우치를 개봉하여 겔 패치를 꺼냅니다.
+3. 먼저 투명 필름을 제거 후 제품을 입술 주변에 밀착시킨 후 백색필름을 제거해 줍니다.
+4. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 20~30분 후 떼어냅니다.
+5. 피부에 남아있는 잔여 에센스를 마사지 하듯 톡톡 두드려 흡수시켜 줍니다.</t>
+  </si>
+  <si>
+    <t>1. After washing the face, apply toner to clean the skin.
+2. Take out hydrogel patch from the pouch.
+3. First, remove the transparent film, then put on the patch around the lips and remove the white film.
+4. Relax, enjoy the mask, and remove it after 20 to 30 minutes.
+5. Pat the remaining essence on the skin to absorb.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>립패치-주름</t>
+  </si>
+  <si>
+    <t>립패치-미백</t>
+  </si>
+  <si>
+    <t>Lip patch (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트마스크</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아주고 피부를 정돈합니다.
+2. 파우치를 개봉하여 마스크 팩을 꺼냅니다.
+3. 팩을 펼친 후 제품을 눈을 중심으로 하여 피부에 밀착시킵니다.
+4. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 10~20분 후 떼어냅니다.
+5. 피부에 남아있는 잔여 에센스를 마사지 하듯 톡톡 두드려 흡수시켜 줍니다.</t>
+  </si>
+  <si>
+    <t>시트마스크-주름</t>
+  </si>
+  <si>
+    <t>After applying this cosmetic to the skin, remove it 10 to 20 minutes later and spread the remaining residue evenly.</t>
+  </si>
+  <si>
+    <t>시트마스크-미백</t>
+  </si>
+  <si>
+    <t>본 품을 피부에 붙이고 10~20분 후 지지체를 제거한 다음 남은 제품을 골고루 펴바른다.</t>
+  </si>
+  <si>
+    <t>스킨</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 제품의 용기에서 캡을 떼어줍니다.
+3. 내용 적당량을 덜어 눈 주위를 피하여 얼굴에 발라줍니다.</t>
+  </si>
+  <si>
+    <t>스킨-주름</t>
+  </si>
+  <si>
+    <t>본 품 적당량을 취해 피부에 골고루 펴 바른다.</t>
+  </si>
+  <si>
+    <t>스킨-미백</t>
+  </si>
+  <si>
+    <t>로션</t>
+  </si>
+  <si>
+    <t>제품의 캡을 열고 내용물을 적당량 덜어내어 피부에 균일하게 펴 발라 줍니다.</t>
+  </si>
+  <si>
+    <t>로션-주름</t>
+  </si>
+  <si>
+    <t>로션-미백</t>
+  </si>
+  <si>
+    <t>크림</t>
+  </si>
+  <si>
+    <t>크림-주름</t>
+  </si>
+  <si>
+    <t>크림-미백</t>
+  </si>
+  <si>
+    <t>선크림-3중기능성(주름.미백,SPF30, PA++)</t>
+  </si>
+  <si>
+    <t>미백주름개선이중기능성화장품
+자외선차단기능성화장품(SPF30,PA++)</t>
+  </si>
+  <si>
+    <t>선크림-SPF50+, PF+++</t>
+  </si>
+  <si>
+    <t>Sunscreen-SPF50+, PF+++</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자외선으로부터 피부를 보호한다. (SPF50+, PA+++)</t>
+  </si>
+  <si>
+    <t>본 품 적당량을 취한 후 피부에 골고루 펴 바른다.</t>
+  </si>
+  <si>
+    <t>자외선차단기능성화장품(SPF50+,PA+++)</t>
+  </si>
+  <si>
+    <t>미백주름개선이중기능성화장품
+자외선차단기능성화장품(SPF50+,PA+++)</t>
+  </si>
+  <si>
+    <t>미스트</t>
+  </si>
+  <si>
+    <t>얼굴과 20~30cm 거리를 두고 고르게 분사한 후, 미스트가 잘 스며들 수 있도록 손으로 두드려 줍니다.</t>
+  </si>
+  <si>
+    <t>Spray 20-30 cm away from the face and pat the skin to absorb.</t>
+  </si>
+  <si>
+    <t>미스트-주름</t>
+  </si>
+  <si>
+    <t>미스트-미백</t>
+  </si>
+  <si>
+    <t>필링패드</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 제품의 캡을 열고 패드를 꺼냅니다.
+3. 패드를 이용하여 부드럽게  피부를 닦아줍니다.</t>
+  </si>
+  <si>
+    <t>클린패드</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 파우치를 개봉하여 패드를 꺼냅니다.
+3. 패드를 이용하여 부드럽게  피부를 닦아줍니다.</t>
+  </si>
+  <si>
+    <t>클린패드-용기</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 용기를 열고 패드를 꺼냅니다.
+3. 패드를 이용하여 부드럽게 피부를 닦아줍니다.</t>
+  </si>
+  <si>
+    <t>클렌징오일</t>
+  </si>
+  <si>
+    <t>Cleansing oil</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨얼굴 혹은 메이크업 된 얼굴에 적당량을 덜어 피부결에 따라 부드럽게 마사지 해줍니다. 손에 물을 묻혀 마사지한 후에 미온수로 헹궈냅니다.</t>
+  </si>
+  <si>
+    <t>클렌징폼</t>
+  </si>
+  <si>
+    <t>세안 시 적당량을 손에 덜어 충분히 거품을 낸 뒤, 얼굴에 문지르고 미지근한 물로 씻어 냅니다.</t>
+  </si>
+  <si>
+    <t>필링젤</t>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 제품을 손에 적당량 덜어 눈가, 입가를 제외한 얼굴 전체에 부드럽게 마사지 해줍니다.
+3. 밀려나온 각질을 털어낸 다음 미온수로 부드럽게 피부를 닦아줍니다.</t>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -426,9 +685,10 @@
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우 전문의 등과 상담할 것
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
 나. 상처가 있는 부위 등에는 사용을 자제할 것
-다. 보관 및 취급 시의 주의사항
+다. 눈 주위를 피하여 사용할 것
+라. 보관 및 취급 시 주의사항
    1) 어린이의 손이 닿지 않는 곳에 보관할 것
    2) 직사광선을 피해서 보관할 것</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -437,49 +697,43 @@
     <t xml:space="preserve">1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
 2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
 3) Keep away from eyes area.
-4) Cautions for storage and handling.  a) Keep out of reach of children.
- b) Do not store in the places expose to direct sunlight
+4) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight
 </t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>겔마스크-주름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Hydrogel mask (Wrinkle improvement)</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부의 주름개선에 도움을 준다.</t>
-  </si>
-  <si>
-    <t>It helps to improve skinfold.</t>
-  </si>
-  <si>
-    <t>본 품을 피부에 붙이고 20~30분 후 제거한 다음 남은 잔여물을 골고루 펴 바른다.</t>
   </si>
   <si>
     <t>After applying this cosmetic to the skin, remove it 20 to 30 minutes later and spread the remaining residue evenly.</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우 전문의 등과 상담할 것
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
 나. 상처가 있는 부위 등에는 사용을 자제할 것
-다. 보관 및 취급 시의 주의사항
+다. 눈 주위를 피하여 사용할 것
+라. 보관 및 취급 시 주의사항
    1) 어린이의 손이 닿지 않는 곳에 보관할 것
    2) 직사광선을 피해서 보관할 것</t>
-  </si>
-  <si>
-    <t>주름개선기능성화장품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Keep away from eyes area.
+4) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
     <t>Wrinkle improvement cosmetics</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>겔마스크-미백</t>
-  </si>
-  <si>
     <t>Hydrogel mask (Whitening)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -492,20 +746,24 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>본 품을 피부에 붙이고 20~30분간 부착하고 제거한 다음 남아 있는 내용물을 골고루 펴 바른다.</t>
-  </si>
-  <si>
-    <t>미백개선기능성화장품</t>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 눈 주위를 피하여 사용할 것
+라. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Whitening cosmetics</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>겔마스크-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Hydrogel mask (Wrinkle improvement, Whitening)</t>
+    <t>겔마스크-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrogel mask (Whitening, Wrinkle improvement)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -514,34 +772,30 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>It helps to improve skinfold.
-It helps whitening the skin.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 품을 피부에 붙이고 20~30분 후 제거한 다음 남은 내용물을 골고루 펴 바른다.</t>
+    <t>It helps whitening the skin.
+It helps to improve skinfold.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 눈 주위를 피하여 사용할 것
+라. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>미백주름개선이중기능성화장품</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>Wrinkle improvement, whitening cosmetics</t>
+    <t>Whitening, Wrinkle improvement cosmetics</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>아이패치자타입</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye gel patch -jar type
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 기초화장품을 이용하여 피부결을 정리해줍니다.
-3. 반드시 동봉된 위생스푼을 이용하여 아이패치를 붙여줍니다.
-4. 20~30분 후 떼어내고 피부에 남아있는 에센스를 마사지 하듯 가볍게 두드려 흡수시켜줍니다.</t>
+    <t>Eye gel patch -jar type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1. After washing the face, dry off the water with a towel.
@@ -552,6 +806,872 @@
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye gel patch -jar type (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye gel patch -jar type (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Use skin toner to clean the skin texture. 
+3. Apply the Eye gel patch with the enclosed hygiene spoon.
+4. After 20 ~ 30 minutes, remove the patch,
+    Pat the remaining essence on the skin to absorb.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이패치자타입-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye gel patch -jar type (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening, Wrinkle improvement cosmetics</t>
+  </si>
+  <si>
+    <t>Eye gel patch -disposable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Remove the back film and take out the contents.
+3. Put on the patchs around the eyes.
+4. After 20 ~ 30 minutes, remove the patch.
+5. Pat the remaining essence on the skin to absorb.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye gel patch -disposable (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Remove the back film and take out the contents.
+3. Put on the patchs around the eyes.
+4. After 20 ~ 30 minutes, remove the patch.
+5. Pat the remaining essence on the skin to absorb.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye gel patch -disposable (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이패치1회용-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye gel patch -disposable (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>립패치자타입</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip gel patch -jar type</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
+2. 기초화장품을 이용하여 피부결을 정리해줍니다.
+3. 반드시 동봉된 집게을 이용하여 립패치를 붙여줍니다.
+4. 20~30분 후 떼어내고 입술에 남아있는 에센스를 마사지 하듯 가볍게 두드려 흡수시켜줍니다.</t>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Use skin toner to clean the skin texture. 
+3. Apply the Lip gel patch with the enclosed hygiene Tongs.
+4. After 20 ~ 30 minutes, remove the patch,
+    Pat the remaining essence on the lip to absorb.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+  </si>
+  <si>
+    <t>립패치자타입-미백</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip gel patch -jar type (Wrinkle improvement)</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>After applying this cosmetic to the skin, remove it 20 to 30 minutes later and spread the remaining residue evenly.</t>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Use skin toner to clean the skin texture. 
+3. Apply the Lip gel patch with the enclosed hygiene Tongs.
+4. After 20 ~ 30 minutes, remove the patch,
+    Pat the remaining essence on the lip to absorb.</t>
+  </si>
+  <si>
+    <t>Wrinkle improvement cosmetics</t>
+  </si>
+  <si>
+    <t>립패치자타입-주름</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip gel patch -jar type (Whitening)</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>It helps whitening the skin.</t>
+  </si>
+  <si>
+    <t>Whitening cosmetics</t>
+  </si>
+  <si>
+    <t>립패치자타입-이중기능성(주름,미백)</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip gel patch -jar type (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It helps whitening the skin.
+It helps to improve skinfold.</t>
+  </si>
+  <si>
+    <t>Lip patch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After washing the face, apply toner to clean the skin.
+2. Take out hydrogel patch from the pouch.
+3. First, remove the transparent film, then put on the patch around the lips and remove the white film.
+4. Relax, enjoy the mask, and remove it after 20 to 30 minutes.
+5. Pat the remaining essence on the skin to absorb.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip patch (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>립패치-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lip patch (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet mask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Take out mask from the pouch.
+3. Put on the mask to the skin, centering on the eyes. 
+4. Relax, enjoy the mask, and remove it after 10 to 20 minutes.
+5. Pat the remaining essence on the skin to absorb.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 눈 주위를 피하여 사용할 것
+라. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet mask (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 품을 피부에 붙이고 10~20분 후 지지체를 제거한 다음 남은 제품을 골고루 펴바른다.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>주름개선기능성화장품</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet mask (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트마스크-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet mask (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Keep away from eyes area.
+4) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. After washing the face, dry off the water with a towel.
+2. Remove the cap from the product container.
+3. Take an adequate amount of content and apply it on the face, avoiding around eyes area.
+</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toner (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take an adequate amount of this cosmetic and spread it evenly on the skin.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toner (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킨-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toner (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening, Wrinkle improvement cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the cap of the product and take an adequate amount and spread it evenly over the skin.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotion (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotion (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로션-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotion (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cream</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cream (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cream (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cream (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunscreen(Wrinkle improvement, Whitening, PF30, PA++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부의 미백에 도움을 준다.
+피부의 주름개선에 도움을 준다.
+자외선으로부터 피부를 보호한다. (SPF30, PA++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It helps to improve skinfold.
+It helps whitening the skin.
+Protects the skin from UV rays.
+(SPF30, PA++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening, Wrinkle improvement, sunscreen cosmetics. 
+(SPF30, PA++)</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protects the skin from UV rays.. (SPF50+, PA+++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunscreen cosmetics
+(SPF50+,PA+++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선크림-3중기능성(미백,주름,SPF50+, PF+++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunscreen(Whitening, Wrinkle improvement, SPF50+, PF+++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부의 미백에 도움을 준다.
+피부의 주름개선에 도움을 준다.
+자외선으로부터 피부를 보호한다. (SPF50+, PA++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It helps whitening the skin.
+It helps to improve skinfold.
+Protects the skin from UV rays.
+(SPF50+, PF+++)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening, Wrinkle improvement, sunscreen cosmetics.
+(SPF50+, PF+++)</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mist (Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mist (Whitening)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미스트-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mist (Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peeling pad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. After washing the face, dry off the water with a towel.
+2. Open the cap of the product and take out the pad.
+3. Smoothly wipe the skin using a pad.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toner pad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toner pad - container</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massage the face smoothly with an adequate amount. Roll with wet hands and rinse with tepid water.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleansing foam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you wash the face, take an adequate amount of water on  hands and foam it enough, rub it on the face and wash it off with tepid water.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) When it gets into the eyes, wash the eyes with water immediately and, if there is any abnormality, consult an ophthalmologist.
+3) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+4) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peeling gel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. After washing the face, wipe dry with a towel.
+2. Take an adequate amount of the product on the hands and smoothly massage it all over the face except around eyes and mouth.
+3. Exfoliate on the face and then smoothly wipe the skin with tepid water.
+</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>불용성 아이패치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cataplasma Eye Patch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 파우치를 개봉하여 패치를 꺼냅니다.
+2. 필름을 제거 후 제품을 눈을 중심으로 하여 피부에 밀착시킵니다.
+3. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 20~30분 후 떼어냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Open the pouch and take out the patch.
+2. After removing the film, put the product in close contact with the skin centered on the eyes.
+3. Rest in a comfortable position, enjoy the pack, and remove it after 20 to 30 minutes.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가) 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나) 상처가 있는 부위 등에는 사용을 자제할 것
+다) 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>불용성 아이패치-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cataplasma Eye Patch(Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It helps whitening the skin.
+It helps to improve skinfold.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>After applying this cosmetic to the skin, remove it 20 to 30 minutes later and spread the remaining residue evenly.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 파우치를 개봉하여 패치를 꺼냅니다.
+2. 필름을 제거 후 제품을 눈을 중심으로 하여 피부에 밀착시킵니다.
+3. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 20~30분 후 떼어냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Open the pouch and take out the patch.
+2. After removing the film, put the product in close contact with the skin centered on the eyes.
+3. Rest in a comfortable position, enjoy the pack, and remove it after 20 to 30 minutes.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 패치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports Patch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 눈밑, 광대뼈, 눈꼬리 등 부착 부위에 유분기, 땀을 정리해줍니다.
+2. 파우치를 개봉한 후 필름을 제거해줍니다.
+3. 눈밑에서부터 눈꼬리까지 밀착하여 붙여줍니다.
+4. 사용을 중지하고 싶을 때 부드럽게 패치를 떼어줍니다.
+- 활동 5~10분 전 부착하는 것을 권장드립니다.
+- 라운딩 시에는 티오프 전 부착하는 것을 권장드리며, 장시간 부착도 무방합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. It cleans up oil and sweat on the attachments such as under the eyes, cheekbones, and corners of the eyes.
+2. Remove the film after opening the pouch.
+3. Apply it closely from under the eyes to the corners of your eyes.
+4. Gently remove the patch when you want to stop using it.
+- It is recommended to attach it 5-10 minutes before the activity.
+- It is recommended to attach it before tee-off when rounding, and it can be attached for a long time.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 패치-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports Patch(Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가) 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나) 상처가 있는 부위 등에는 사용을 자제할 것
+다) 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브이라인 패치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-line Patch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 파우치를 개봉하여 브이라인패치를 꺼내어 보호필름을 제거합니다.
+2. 시트를 당기면서 중심을 턱에 맞추어 줍니다.
+3. 시트를 당긴 상태로 귀에 걸어 줍니다.
+4. 얼굴을 맞추어 시트를 정돈합니다.
+5. 사용을 중지하고 싶을 때 부드럽게 패치를 떼어줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Open the pouch and remove the v-line patch to remove the protective film.
+2. Pull the seatroong and put the center on your chin.
+3. Hang it on your ears with the sheet pulled.
+4. Tidy up the sheets by matching your face.
+5. Gently remove the patch when you want to stop using it.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가) 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나) 상처가 있는 부위 등에는 사용을 자제할 것
+다) 눈 주위를 피하여 사용할 것
+라) 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Keep away from eyes area.
+4) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>브이라인 패치-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-line Patch(Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 파우치를 개봉하여 브이라인패치를 꺼내어 보호필름을 제거합니다.
+2. 시트를 당기면서 중심을 턱에 맞추어 줍니다.
+3. 시트를 당긴 상태로 귀에 걸어 줍니다.
+4. 얼굴을 맞추어 시트를 정돈합니다.
+5. 사용을 중지하고 싶을 때 부드럽게 패치를 떼어줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Open the pouch and remove the v-line patch to remove the protective film.
+2. Pull the seatroong and put the center on your chin.
+3. Hang it on your ears with the sheet pulled.
+4. Tidy up the sheets by matching your face.
+5. Gently remove the patch when you want to stop using it.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가) 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나) 상처가 있는 부위 등에는 사용을 자제할 것
+다) 눈 주위를 피하여 사용할 것
+라) 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디 패치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Patch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 파우치를 개봉하여 패치를 꺼내어 보호필름을 제거합니다.
+2. 원하는 부착부위에 밀착하여 붙여줍니다.
+3. 사용을 중지하고 싶을 때 부드럽게 패치를 떼어줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Open the pouch and remove the patch to remove the protective film.
+2. Attach it closely to the desired attachment area.
+3. Gently remove the patch when you want to stop using it.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디 패치-이중기능성(미백,주름)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Patch(Whitening, Wrinkle improvement)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤어토닉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair Tonic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 전 제품을 충분히 흔들어 준 뒤, 매일 두피에 적당량을 고루 바른 다음 손가락을 이용하여 마사지 하듯이 하여 충분히 흡수되도록 문질러 준다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake the product thoroughly before use, apply an appropriate amount to the scalp every day, and then massage it using your fingers to rub it in for full absorption.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가) 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의
+등과 상담할 것
+나) 상처가 있는 부위 등에는 사용을 자제할 것
+다) 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것
+라) 눈에 들어갔을 때에는 즉시 물로 씻어내고, 이상이 있는 경우에는 전문의와 상담할 것
+마) 알레르기 증상이 나타난 적이 있는 사람은 사용하기 전에 의사 및 약사와 상의할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.  
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight
+4) When it gets into the eyes, wash the eyes with water immediately and, if there is any abnormality, consult an ophthalmologist.
+5) People who have ever had allergy symptoms should consult a doctor or pharmacist before use</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>바디워시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Wash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당량을 목욕용 스펀지나 타올에 묻혀 거품을 낸 다음 전신에 마사지하듯이 문지를 후 물로 깨끗이 씻어냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply an appropriate amount to a bath sponge or towel, lather, massage over the entire body, and rinse thoroughly with water.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) When it gets into the eyes, wash the eyes with water immediately and, if there is any abnormality, consult an ophthalmologist.
+3) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+4) Cautions for storage and handling.
+   a) Keep out of reach of children.
+   b) Do not store in the places expose to direct sunlight</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>샴푸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shampoo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>적당량을 덜어 충분히 거품을 낸 뒤, 모발과 두피에 가볍게 마사지 한 후 흐르는 물로 깨긋이 헹구어냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take an appropriate amount, lather well, gently massage into hair and scalp, then rinse thoroughly with running water.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것
+라. 눈에 들어갔을 때에는 즉시 씻어낼 것
+마. 사용 후 물로 씻어내지 않으면 탈모 또는 탈색의 원인이 될 수 있으므로 주의할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.  a) Keep out of reach of children.
+ b) Do not store in the places expose to direct sunlight
+4) In case of contact with eyes, rinse immediately
+5) If you do not wash with water after using the product, it may cause hair loss or discoloration.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리트먼트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treatment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>샴푸 후 적당량을 덜어 모발에 도포 후 헹구어 냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>After shampooing, apply an appropriate amount to hair and rinse.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것
+라. 눈에 들어갔을 때에는 즉시 씻어낼 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
+2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
+3) Cautions for storage and handling.  a) Keep out of reach of children.
+ b) Do not store in the places expose to direct sunlight
+4) In case of contact with eyes, rinse immediately</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>클렌저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleanser</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>세안 시 적당량을 손에 덜어 충분히 거품을 낸 뒤, 얼굴에 문지르고 미지근한 물로 씻어 냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>When washing your face, take an appropriate amount on your hand, lather well, rub on your face, and wash off with lukewarm water.</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
 2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
 3) Cautions for storage and handling.  a) Keep out of reach of children.
@@ -560,545 +1680,98 @@
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>아이패치자타입-주름</t>
-  </si>
-  <si>
-    <t>Eye gel patch -jar type (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이패치자타입-미백</t>
-  </si>
-  <si>
-    <t>Eye gel patch -jar type (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부의 미백에 도움을 준다.</t>
-  </si>
-  <si>
-    <t>아이패치자타입-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Eye gel patch -jar type (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부의 미백에 도움을 준다.
-피부의 주름개선에 도움을 준다.</t>
-  </si>
-  <si>
-    <t>미백주름개선이중기능성화장품</t>
-  </si>
-  <si>
-    <t>아이패치1회용</t>
-  </si>
-  <si>
-    <t>Eye gel patch -disposable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 후면 필름을 벗긴 후 내용물을 꺼냅니다.
-3. 내용물을 눈 주위 필요한 부위에 붙여 줍니다.
-4. 20~30분간 팩을 즐긴 후 떼어냅니다.
-5. 남은 에센스를 마사지 하듯 두드려 흡수시켜줍니다.
-</t>
-  </si>
-  <si>
-    <t>1. After washing the face, dry off the water with a towel.
-2. Remove the back film and take out the contents.
-3. Put on the patchs around the eyes.
-4. After 20 ~ 30 minutes, remove the patch.
-5. Pat the remaining essence on the skin to absorb.</t>
+    <t>클렌징워터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleansing Water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장솜에 내용물을 덜어내어 피부 결을 따라 부드럽게 닦아내줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply the contents to a cotton pad and gently wipe along the skin texture.</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>아이패치1회용-주름</t>
-  </si>
-  <si>
-    <t>Eye gel patch -disposable (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이패치1회용-미백</t>
-  </si>
-  <si>
-    <t>Eye gel patch -disposable (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이패치1회용-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Eye gel patch -disposable (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>립패치</t>
-  </si>
-  <si>
-    <t>Lip patch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안후 화장수를 사용하여 피부결을 정돈해 줍니다.
-2. 파우치를 개봉하여 겔 패치를 꺼냅니다.
-3. 먼저 투명 필름을 제거 후 제품을 입술 주변에 밀착시킨 후 백색필름을 제거해 줍니다.
-4. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 20~30분 후 떼어냅니다.
-5. 피부에 남아있는 잔여 에센스를 마사지 하듯 톡톡 두드려 흡수시켜 줍니다.</t>
-  </si>
-  <si>
-    <t>1. After washing the face, apply toner to clean the skin.
-2. Take out hydrogel patch from the pouch.
-3. First, remove the transparent film, then put on the patch around the lips and remove the white film.
-4. Relax, enjoy the mask, and remove it after 20 to 30 minutes.
-5. Pat the remaining essence on the skin to absorb.</t>
+    <t>토닉-탈모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonic(Hair loss)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈모 증상의 완화에 도움을 준다.</t>
+  </si>
+  <si>
+    <t>Helps alleviate hair loss symptoms.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 2회 두피에 적당량(본품 약 1g 해당량)을 고루 바른 다음 흡수가 되도록 손끝으로 마사지 해준다.</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>립패치-주름</t>
-  </si>
-  <si>
-    <t>Lip patch (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>립패치-미백</t>
-  </si>
-  <si>
-    <t>Lip patch (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>립패치-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Lip patch (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>It helps to improve skinfold.
-It helps whitening the skin.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>시트마스크</t>
-  </si>
-  <si>
-    <t>Sheet mask</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아주고 피부를 정돈합니다.
-2. 파우치를 개봉하여 마스크 팩을 꺼냅니다.
-3. 팩을 펼친 후 제품을 눈을 중심으로 하여 피부에 밀착시킵니다.
-4. 편안한 자세로 휴식을 취하며 팩을 즐긴 후 10~20분 후 떼어냅니다.
-5. 피부에 남아있는 잔여 에센스를 마사지 하듯 톡톡 두드려 흡수시켜 줍니다.</t>
-  </si>
-  <si>
-    <t>1. After washing the face, dry off the water with a towel.
-2. Take out mask from the pouch.
-3. Put on the mask to the skin, centering on the eyes. 
-4. Relax, enjoy the mask, and remove it after 10 to 20 minutes.
-5. Pat the remaining essence on the skin to absorb.</t>
+    <t>Apply an appropriate amount (equivalent to about 1g of product) evenly to the scalp twice a day and massage with your fingertips to help absorption.</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>시트마스크-주름</t>
-  </si>
-  <si>
-    <t>Sheet mask (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 품을 피부에 붙이고 10~20분 후 지지체를 제거한 다음 남은 제품을 골고루 펴바른다.</t>
+    <t>두피에 적당량을 고루 바른 다음 흡수가 되도록 손끝으로 마사지 해준다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply an appropriate amount evenly to the scalp and massage with your fingertips to help absorption.</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>After applying this cosmetic to the skin, remove it 10 to 20 minutes later and spread the remaining residue evenly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
-2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
-3) Keep away from eyes area.
-4) Cautions for storage and handling.  a) Keep out of reach of children.
- b) Do not store in the places expose to direct sunlight
-</t>
+    <t>가. 화장품 사용 시 또는 사용 후 직사광선에 의하여 사용부위가 붉은 반점, 부어오름 또는 가려움증 등의 이상 증상이나 부작용이 있는 경우에는 전문의 등과 상담할 것
+나. 상처가 있는 부위 등에는 사용을 자제할 것
+다. 보관 및 취급 시 주의사항
+   1) 어린이의 손이 닿지 않는 곳에 보관할 것
+   2) 직사광선을 피해서 보관할 것
+라. 눈에 들어갔을 때에는 즉시 씻어낼 것</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈모증상완화에 도움을 주는 기능성화장품</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>주름개선기능성화장품</t>
+    <t>Functional cosmetics that help alleviate hair loss symptoms</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>시트마스크-미백</t>
-  </si>
-  <si>
-    <t>Sheet mask (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 품을 피부에 붙이고 10~20분 후 지지체를 제거한 다음 남은 제품을 골고루 펴바른다.</t>
-  </si>
-  <si>
-    <t>시트마스크-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Sheet mask (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미백주름개선이중기능성화장품</t>
+    <t>샴푸-탈모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shampoo(Hair loss)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helps alleviate hair loss symptoms.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 1회 온수로 모발 및 두피를 충분히 적신 후, 적당량을 모발과 두피에 골고루 도포하여 마사지한 다음 깨끗이 헹궈낸다.</t>
+  </si>
+  <si>
+    <t>Once a day, thoroughly wet the hair and scalp with warm water, apply an appropriate amount evenly to the hair and scalp, massage, and then rinse thoroughly.</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>스킨</t>
-  </si>
-  <si>
-    <t>Toner</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 제품의 용기에서 캡을 떼어줍니다.
-3. 내용 적당량을 덜어 눈 주위를 피하여 얼굴에 발라줍니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. After washing the face, dry off the water with a towel.
-2. Remove the cap from the product container.
-3. Take an adequate amount of content and apply it on the face, avoiding around eyes area.
-</t>
+    <t>적당량을 덜어 충분히 거품을 낸 뒤, 모발과 두피에 가볍게 마사지 한 후 흐르는 물로 깨긋이 헹구어냅니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈모증상완화에 도움을 주는 기능성화장품</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
-    <t>스킨-주름</t>
-  </si>
-  <si>
-    <t>Toner (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 품 적당량을 취해 피부에 골고루 펴 바른다.</t>
-  </si>
-  <si>
-    <t>Take an adequate amount of this cosmetic and spread it evenly on the skin.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킨-미백</t>
-  </si>
-  <si>
-    <t>Toner (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킨-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Toner (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Take an adequate amount of this cosmetic and spread it evenly on the skin.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로션</t>
-  </si>
-  <si>
-    <t>Lotion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품의 캡을 열고 내용물을 적당량 덜어내어 피부에 균일하게 펴 발라 줍니다.</t>
-  </si>
-  <si>
-    <t>Open the cap of the product and take an adequate amount and spread it evenly over the skin.</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
-2) Do not apply it on the part where you have a scar, eczema or dermatitis. 
-3) Cautions for storage and handling.  a) Keep out of reach of children.
- b) Do not store in the places expose to direct sunlight
-</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>로션-주름</t>
-  </si>
-  <si>
-    <t>Lotion (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로션-미백</t>
-  </si>
-  <si>
-    <t>Lotion (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로션-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Lotion (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림</t>
-  </si>
-  <si>
-    <t>Cream</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림-주름</t>
-  </si>
-  <si>
-    <t>Cream (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림-미백</t>
-  </si>
-  <si>
-    <t>Cream (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>크림-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Cream (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선크림-3중기능성(주름.미백,SPF30, PA++)</t>
-  </si>
-  <si>
-    <t>Sunscreen(Wrinkle improvement, Whitening, PF30, PA++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부의 미백에 도움을 준다.
-피부의 주름개선에 도움을 준다.
-자외선으로부터 피부를 보호한다. (SPF30, PA++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>It helps to improve skinfold.
-It helps whitening the skin.
-Protects the skin from UV rays.
-(SPF30, PA++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미백주름개선이중기능성화장품
-자외선차단기능성화장품(SPF30,PA++)</t>
-  </si>
-  <si>
-    <t>Wrinkle improvement, whitening, sunscreen cosmetics. 
-(SPF30, PA++)</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>선크림-SPF50+, PF+++</t>
-  </si>
-  <si>
-    <t>Sunscreen-SPF50+, PF+++</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>자외선으로부터 피부를 보호한다. (SPF50+, PA+++)</t>
-  </si>
-  <si>
-    <t>Protects the skin from UV rays.. (SPF50+, PA+++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 품 적당량을 취한 후 피부에 골고루 펴 바른다.</t>
-  </si>
-  <si>
-    <t>자외선차단기능성화장품(SPF50+,PA+++)</t>
-  </si>
-  <si>
-    <t>Sunscreen cosmetics
-(SPF50+,PA+++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선크림-3중기능성(주름,미백,SPF50+, PF+++)</t>
-  </si>
-  <si>
-    <t>Sunscreen(Wrinkle improvement, Whitening,SPF50+, PF+++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피부의 미백에 도움을 준다.
-피부의 주름개선에 도움을 준다.
-자외선으로부터 피부를 보호한다. (SPF50+, PA++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>It helps to improve skinfold.
-It helps whitening the skin.
-Protects the skin from UV rays.
-(SPF50+, PF+++)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open the cap of the product and take an adequate amount and spread it evenly over the skin.</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>미백주름개선이중기능성화장품
-자외선차단기능성화장품(SPF50+,PA+++)</t>
-  </si>
-  <si>
-    <t>Wrinkle improvement, whitening, sunscreen cosmetics.
-(SPF50+, PF+++)</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스트</t>
-  </si>
-  <si>
-    <t>Mist</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼굴과 20~30cm 거리를 두고 고르게 분사한 후, 미스트가 잘 스며들 수 있도록 손으로 두드려 줍니다.</t>
-  </si>
-  <si>
-    <t>Spray 20-30 cm away from the face and pat the skin to absorb.</t>
-  </si>
-  <si>
-    <t>미스트-주름</t>
-  </si>
-  <si>
-    <t>Mist (Wrinkle improvement)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스트-미백</t>
-  </si>
-  <si>
-    <t>Mist (Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스트-이중기능성(주름,미백)</t>
-  </si>
-  <si>
-    <t>Mist (Wrinkle improvement, Whitening)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>필링패드</t>
-  </si>
-  <si>
-    <t>Peeling pad</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 제품의 캡을 열고 패드를 꺼냅니다.
-3. 패드를 이용하여 부드럽게  피부를 닦아줍니다.</t>
-  </si>
-  <si>
-    <t>1. After washing the face, dry off the water with a towel.
-2. Open the cap of the product and take out the pad.
-3. Smoothly wipe the skin using a pad.</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>클린패드</t>
-  </si>
-  <si>
-    <t>Toner pad</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 파우치를 개봉하여 패드를 꺼냅니다.
-3. 패드를 이용하여 부드럽게  피부를 닦아줍니다.</t>
-  </si>
-  <si>
-    <t>클린패드-용기</t>
-  </si>
-  <si>
-    <t>Toner pad - container</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 용기를 열고 패드를 꺼냅니다.
-3. 패드를 이용하여 부드럽게 피부를 닦아줍니다.</t>
-  </si>
-  <si>
-    <t>클렌징오일</t>
-  </si>
-  <si>
-    <t>Cleansing oil</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>맨얼굴 혹은 메이크업 된 얼굴에 적당량을 덜어 피부결에 따라 부드럽게 마사지 해줍니다. 손에 물을 묻혀 마사지한 후에 미온수로 헹궈냅니다.</t>
-  </si>
-  <si>
-    <t>Massage the face smoothly with an adequate amount. Roll with wet hands and rinse with tepid water.</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>클렌징폼</t>
-  </si>
-  <si>
-    <t>Cleansing foam</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>세안 시 적당량을 손에 덜어 충분히 거품을 낸 뒤, 얼굴에 문지르고 미지근한 물로 씻어 냅니다.</t>
-  </si>
-  <si>
-    <t>When you wash the face, take an adequate amount of water on  hands and foam it enough, rub it on the face and wash it off with tepid water.</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) In case of having side effects such as red rash, swollenness or itching while using this cosmetic, or in case such symptoms appear by direct sunlight after using it, consult a dermatologist immediately.
-2) When it gets into the eyes, wash the eyes with water immediately and, if there is any abnormality, consult an ophthalmologist.
-3) Do not apply it on the part where you have a scar, eczema or dermatitis. 
-4) Cautions for storage and handling.  a) Keep out of reach of children.
- b) Do not store in the places expose to direct sunlight
-</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>필링젤</t>
-  </si>
-  <si>
-    <t>Peeling gel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 세안 후 타올을 이용하여 물기를 닦아줍니다.
-2. 제품을 손에 적당량 덜어 눈가, 입가를 제외한 얼굴 전체에 부드럽게 마사지 해줍니다.
-3. 밀려나온 각질을 털어낸 다음 미온수로 부드럽게 피부를 닦아줍니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. After washing the face, wipe dry with a towel.
-2. Take an adequate amount of the product on the hands and smoothly massage it all over the face except around eyes and mouth.
-3. Exfoliate on the face and then smoothly wipe the skin with tepid water.
-</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-    <phoneticPr fontId="70" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
+    <t>Functional cosmetics that help alleviate hair loss symptoms</t>
     <phoneticPr fontId="70" type="noConversion"/>
   </si>
 </sst>
@@ -1661,7 +2334,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1802,8 +2475,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2425,6 +3110,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2767,7 +3562,7 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="68" applyProtection="1">
       <alignment vertical="center"/>
@@ -3000,9 +3795,6 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3010,18 +3802,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3031,6 +3811,10 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="68" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3054,11 +3838,137 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="37" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="56" fillId="0" borderId="40" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="25" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="28" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="36" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="39" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="38" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="196" fontId="57" fillId="27" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="37" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="53" fillId="0" borderId="4" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="58" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3094,14 +4004,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3118,22 +4020,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="196" fontId="53" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3146,112 +4036,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="53" fillId="0" borderId="4" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="58" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="56" fillId="0" borderId="40" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="25" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="28" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="36" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="39" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="24" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="38" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3260,9 +4044,59 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="68" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="135">
@@ -4250,7 +5084,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Di-Water</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
@@ -4695,7 +5535,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
@@ -4713,23 +5553,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="84" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="26" t="s">
         <v>29</v>
       </c>
@@ -4746,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -5515,7 +6355,7 @@
       <c r="A79" s="30"/>
       <c r="B79" s="9"/>
       <c r="C79" s="16"/>
-      <c r="D79" s="133"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="58"/>
       <c r="F79" s="10"/>
       <c r="G79" s="34"/>
@@ -5550,7 +6390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -5567,12 +6407,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="84" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
@@ -5581,16 +6421,16 @@
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="26" t="s">
         <v>29</v>
       </c>
@@ -5607,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -6700,7 +7540,7 @@
       <c r="A93" s="42"/>
       <c r="B93" s="11"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="133"/>
+      <c r="D93" s="70"/>
       <c r="E93" s="47"/>
       <c r="F93" s="43"/>
       <c r="G93" s="43"/>
@@ -6747,26 +7587,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="21" t="s">
@@ -6779,464 +7619,464 @@
       <c r="F3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="105"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="82"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="82"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="130"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="82"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="100"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="82"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
     </row>
     <row r="25" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="100"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="82"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A27" s="106" t="s">
+      <c r="A27" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="105"/>
     </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="82"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="105"/>
     </row>
     <row r="30" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="82"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="105"/>
     </row>
     <row r="32" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="82"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
     </row>
     <row r="33" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="111"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="110"/>
     </row>
     <row r="34" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="82"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
     </row>
     <row r="35" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="105"/>
     </row>
     <row r="36" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="82"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="126"/>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="82"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
     </row>
     <row r="39" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="96"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="122"/>
     </row>
     <row r="40" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="82"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
     </row>
     <row r="41" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="100"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
     </row>
     <row r="42" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="82"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
     </row>
     <row r="43" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="86"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="114"/>
     </row>
     <row r="44" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="89"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1"/>
     <row r="48" spans="1:8" ht="90.75" customHeight="1"/>
@@ -7246,30 +8086,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H15"/>
-    <mergeCell ref="A16:H21"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A44:H44"/>
@@ -7280,548 +8096,6 @@
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A37:H37"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C(주)진코스텍</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:H43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" style="19" customWidth="1"/>
-    <col min="2" max="8" width="9.21875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-    </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-    </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="132"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="119"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A8" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A12" s="125"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-    </row>
-    <row r="13" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A13" s="125"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-    </row>
-    <row r="14" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-    </row>
-    <row r="15" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="122" t="e">
-        <f>IF(전성분표!#REF!="","",전성분표!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-    </row>
-    <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-    </row>
-    <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
-    </row>
-    <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="125"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
-    </row>
-    <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="130"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A22" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="82"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="100"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A24" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="82"/>
-    </row>
-    <row r="25" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="100"/>
-    </row>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A26" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="82"/>
-    </row>
-    <row r="27" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A27" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-    </row>
-    <row r="28" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A28" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="82"/>
-    </row>
-    <row r="29" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A29" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A30" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="82"/>
-    </row>
-    <row r="31" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A31" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-    </row>
-    <row r="32" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A32" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="82"/>
-    </row>
-    <row r="33" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A33" s="97"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="111"/>
-    </row>
-    <row r="34" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A34" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="82"/>
-    </row>
-    <row r="35" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-    </row>
-    <row r="36" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A36" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="82"/>
-    </row>
-    <row r="37" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A37" s="101" t="str">
-        <f>IF(B3="","",VLOOKUP(B3,#REF!,3,0))</f>
-        <v/>
-      </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
-    </row>
-    <row r="38" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A38" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="82"/>
-    </row>
-    <row r="39" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A39" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="96"/>
-    </row>
-    <row r="40" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A40" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="82"/>
-    </row>
-    <row r="41" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A41" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="100"/>
-    </row>
-    <row r="42" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A42" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="82"/>
-    </row>
-    <row r="43" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A43" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="86"/>
-    </row>
-    <row r="44" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A44" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="89"/>
-    </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1"/>
-    <row r="48" spans="1:8" ht="90.75" customHeight="1"/>
-    <row r="51" ht="21" customHeight="1"/>
-    <row r="52" ht="47.25" customHeight="1"/>
-    <row r="53" ht="67.5" customHeight="1"/>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="34">
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
@@ -7859,15 +8133,581 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="19" customWidth="1"/>
+    <col min="2" max="8" width="9.21875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A4" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A5" s="118"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A6" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A8" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" ht="127.5" customHeight="1">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A10" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+    </row>
+    <row r="11" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+    </row>
+    <row r="13" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+    </row>
+    <row r="14" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+    </row>
+    <row r="15" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A15" s="95"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
+    </row>
+    <row r="16" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A16" s="89" t="e">
+        <f>IF(전성분표!#REF!="","",전성분표!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
+    </row>
+    <row r="18" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
+    </row>
+    <row r="19" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+    </row>
+    <row r="21" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="97"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A22" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A24" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" ht="154.5" customHeight="1">
+      <c r="A25" s="83"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A26" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A27" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="105"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A28" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A29" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="105"/>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A30" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
+    </row>
+    <row r="31" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A31" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A32" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+    </row>
+    <row r="33" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="110"/>
+    </row>
+    <row r="34" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A34" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A35" s="118"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="105"/>
+    </row>
+    <row r="36" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A36" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A37" s="124" t="str">
+        <f>IF(B3="","",VLOOKUP(B3,#REF!,3,0))</f>
+        <v/>
+      </c>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="126"/>
+    </row>
+    <row r="38" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A38" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
+    </row>
+    <row r="39" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A39" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="122"/>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A40" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A41" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
+    </row>
+    <row r="42" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A42" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A43" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="114"/>
+    </row>
+    <row r="44" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A44" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
+    </row>
+    <row r="47" spans="1:8" ht="42" customHeight="1"/>
+    <row r="48" spans="1:8" ht="90.75" customHeight="1"/>
+    <row r="51" ht="21" customHeight="1"/>
+    <row r="52" ht="47.25" customHeight="1"/>
+    <row r="53" ht="67.5" customHeight="1"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="34">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H15"/>
+    <mergeCell ref="A16:H21"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C(주)진코스텍</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="21" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M48"/>
+  <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7928,1704 +8768,2449 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="108">
-      <c r="B4" s="65" t="s">
+    <row r="4" spans="2:13" ht="121.5">
+      <c r="B4" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="108">
+      <c r="B5" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="C5" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="E5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="F5" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="130" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="108">
+      <c r="B6" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="108">
+      <c r="B7" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="130" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="94.5">
+      <c r="B8" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="E8" s="66" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="108">
-      <c r="B5" s="65" t="s">
+      <c r="F8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="94.5">
+      <c r="B9" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="G9" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="66" t="s">
+      <c r="M9" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="94.5">
+      <c r="B10" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="66" t="s">
+      <c r="M10" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="94.5">
+      <c r="B11" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="G11" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="94.5">
+      <c r="B12" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="94.5">
+      <c r="B13" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="108">
-      <c r="B6" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="67" t="s">
+      <c r="F13" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="94.5">
+      <c r="B14" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E14" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="94.5">
+      <c r="B15" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="E15" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L15" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="M15" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="94.5">
+      <c r="B16" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="135" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="94.5">
+      <c r="B17" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="135" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="94.5">
+      <c r="B18" s="132" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="133" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="66" t="s">
+      <c r="M18" s="135" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="94.5">
+      <c r="B19" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="134" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="G19" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="108">
+      <c r="B20" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="108">
+      <c r="B21" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="108">
-      <c r="B7" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="66" t="s">
+      <c r="F21" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="I21" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="J21" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="108">
+      <c r="B22" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="66" t="s">
+      <c r="M22" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="108">
+      <c r="B23" s="131" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="G23" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="108">
+      <c r="B24" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="108">
+      <c r="B25" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="94.5">
-      <c r="B8" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="67" t="s">
+      <c r="F25" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="108">
+      <c r="B26" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="108">
+      <c r="B27" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="94.5">
+      <c r="B28" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" s="66" t="s">
+      <c r="H28" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="M28" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="94.5">
-      <c r="B9" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="66" t="s">
+    <row r="29" spans="2:13" ht="94.5">
+      <c r="B29" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K29" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="94.5">
+      <c r="B30" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="94.5">
-      <c r="B10" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="66" t="s">
+      <c r="M30" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="94.5">
+      <c r="B31" s="131" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="67" t="s">
+      <c r="I31" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="94.5">
-      <c r="B11" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="67" t="s">
+      <c r="M31" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="94.5">
+      <c r="B32" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="94.5">
-      <c r="B12" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="67" t="s">
+      <c r="C32" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="94.5">
-      <c r="B13" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="94.5">
-      <c r="B14" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="I14" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="94.5">
-      <c r="B15" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="108">
-      <c r="B16" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="108">
-      <c r="B17" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="108">
-      <c r="B18" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="108">
-      <c r="B19" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="108">
-      <c r="B20" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="108">
-      <c r="B21" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="M21" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="108">
-      <c r="B22" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="J22" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="108">
-      <c r="B23" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="94.5">
-      <c r="B24" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="94.5">
-      <c r="B25" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="94.5">
-      <c r="B26" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="J26" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M26" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="94.5">
-      <c r="B27" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="J27" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K27" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L27" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M27" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="94.5">
-      <c r="B28" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J28" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="L28" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="94.5">
-      <c r="B29" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J29" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L29" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="94.5">
-      <c r="B30" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J30" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="94.5">
-      <c r="B31" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J31" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L31" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M31" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="94.5">
-      <c r="B32" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="66" t="s">
         <v>78</v>
       </c>
       <c r="G32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" s="66" t="s">
+      <c r="H32" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="94.5">
+      <c r="B33" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="94.5">
+      <c r="B34" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L34" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="94.5">
+      <c r="B35" s="131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L35" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="94.5">
+      <c r="B36" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K36" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="94.5">
+      <c r="B37" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="94.5">
+      <c r="B38" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J38" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L38" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="94.5">
+      <c r="B39" s="131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" s="67" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="94.5">
+      <c r="B40" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="F40" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="M40" s="67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="94.5">
+      <c r="B41" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K41" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="94.5">
+      <c r="B42" s="131" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J42" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L42" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="M42" s="67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="94.5">
+      <c r="B43" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K43" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="94.5">
+      <c r="B44" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K44" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="94.5">
+      <c r="B45" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K45" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L45" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" s="67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="94.5">
+      <c r="B46" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" s="67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="94.5">
+      <c r="B47" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="K47" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="94.5">
+      <c r="B48" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="J48" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K48" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L48" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="94.5">
+      <c r="B49" s="131" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="J49" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K49" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L49" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M49" s="67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="94.5">
+      <c r="B50" s="131" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K50" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="L50" s="65"/>
+      <c r="M50" s="67"/>
+    </row>
+    <row r="51" spans="2:13" ht="121.5">
+      <c r="B51" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="K51" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="L51" s="65"/>
+      <c r="M51" s="67"/>
+    </row>
+    <row r="52" spans="2:13" ht="122.25" thickBot="1">
+      <c r="B52" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="K52" s="138" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" s="138"/>
+      <c r="M52" s="140"/>
+    </row>
+    <row r="53" spans="2:13" ht="95.25" thickTop="1">
+      <c r="B53" s="141" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="142" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="G53" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" s="142" t="s">
+        <v>276</v>
+      </c>
+      <c r="I53" s="142" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53" s="142" t="s">
+        <v>278</v>
+      </c>
+      <c r="K53" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="L53" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="M53" s="143" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="94.5">
+      <c r="B54" s="132" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="K32" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="66" t="s">
+      <c r="G54" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="134" t="s">
+        <v>284</v>
+      </c>
+      <c r="J54" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="K54" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="L54" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="121.5">
+      <c r="B55" s="132" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F55" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="H55" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="I55" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="J55" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="K55" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="L55" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="M55" s="135" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="121.5">
+      <c r="B56" s="132" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="134" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="H56" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="I56" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="J56" s="134" t="s">
+        <v>293</v>
+      </c>
+      <c r="K56" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="L56" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="108">
+      <c r="B57" s="132" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="F57" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" s="134" t="s">
+        <v>296</v>
+      </c>
+      <c r="I57" s="134" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57" s="134" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="L57" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="M57" s="135" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="108">
+      <c r="B58" s="132" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="H58" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="I58" s="134" t="s">
+        <v>303</v>
+      </c>
+      <c r="J58" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="K58" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="L58" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="108">
+      <c r="B59" s="132" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" s="134" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="H59" s="134" t="s">
+        <v>307</v>
+      </c>
+      <c r="I59" s="134" t="s">
+        <v>308</v>
+      </c>
+      <c r="J59" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="K59" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="L59" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="M59" s="135" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="108">
+      <c r="B60" s="132" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="134" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" s="134" t="s">
+        <v>307</v>
+      </c>
+      <c r="I60" s="134" t="s">
+        <v>308</v>
+      </c>
+      <c r="J60" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="K60" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="148.5">
+      <c r="B61" s="132" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" s="134" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="M32" s="68" t="s">
+      <c r="E61" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F61" s="134" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="94.5">
-      <c r="B33" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L33" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M33" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="94.5">
-      <c r="B34" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I34" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L34" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="94.5">
-      <c r="B35" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I35" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J35" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L35" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="94.5">
-      <c r="B36" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J36" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" s="68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="94.5">
-      <c r="B37" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="J37" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L37" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="M37" s="68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="94.5">
-      <c r="B38" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="J38" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K38" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="M38" s="68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="94.5">
-      <c r="B39" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="67" t="s">
+      <c r="G61" s="134" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" s="134" t="s">
+        <v>314</v>
+      </c>
+      <c r="I61" s="134" t="s">
+        <v>315</v>
+      </c>
+      <c r="J61" s="134" t="s">
+        <v>316</v>
+      </c>
+      <c r="K61" s="134" t="s">
+        <v>317</v>
+      </c>
+      <c r="L61" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="M61" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="67" t="s">
+    </row>
+    <row r="62" spans="2:13" ht="121.5">
+      <c r="B62" s="132" t="s">
+        <v>318</v>
+      </c>
+      <c r="C62" s="134" t="s">
+        <v>319</v>
+      </c>
+      <c r="D62" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="E62" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="H39" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="J39" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L39" s="66" t="s">
+      <c r="G62" s="134" t="s">
+        <v>313</v>
+      </c>
+      <c r="H62" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="I62" s="134" t="s">
+        <v>321</v>
+      </c>
+      <c r="J62" s="134" t="s">
+        <v>278</v>
+      </c>
+      <c r="K62" s="134" t="s">
+        <v>322</v>
+      </c>
+      <c r="L62" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="M39" s="68" t="s">
+      <c r="M62" s="135" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="94.5">
-      <c r="B40" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H40" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L40" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M40" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="94.5">
-      <c r="B41" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="J41" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L41" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="94.5">
-      <c r="B42" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="H42" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="J42" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K42" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L42" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="M42" s="68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="94.5">
-      <c r="B43" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="67" t="s">
+    <row r="63" spans="2:13" ht="135">
+      <c r="B63" s="132" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" s="134" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E63" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="G63" s="134" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63" s="134" t="s">
+        <v>325</v>
+      </c>
+      <c r="I63" s="134" t="s">
+        <v>326</v>
+      </c>
+      <c r="J63" s="134" t="s">
+        <v>327</v>
+      </c>
+      <c r="K63" s="134" t="s">
+        <v>328</v>
+      </c>
+      <c r="L63" s="134"/>
+      <c r="M63" s="135"/>
+    </row>
+    <row r="64" spans="2:13" ht="108">
+      <c r="B64" s="132" t="s">
+        <v>329</v>
+      </c>
+      <c r="C64" s="134" t="s">
+        <v>330</v>
+      </c>
+      <c r="D64" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="E64" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F64" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="I43" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="J43" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="L43" s="66" t="s">
+      <c r="G64" s="134" t="s">
+        <v>313</v>
+      </c>
+      <c r="H64" s="134" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="J64" s="134" t="s">
+        <v>333</v>
+      </c>
+      <c r="K64" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="L64" s="134"/>
+      <c r="M64" s="135"/>
+    </row>
+    <row r="65" spans="2:13" ht="94.5">
+      <c r="B65" s="132" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" s="134" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="M43" s="68" t="s">
+      <c r="E65" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" s="134" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" ht="94.5">
-      <c r="B44" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="67" t="s">
+      <c r="G65" s="134" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" s="134" t="s">
+        <v>338</v>
+      </c>
+      <c r="I65" s="134" t="s">
+        <v>339</v>
+      </c>
+      <c r="J65" s="134" t="s">
+        <v>340</v>
+      </c>
+      <c r="K65" s="134" t="s">
+        <v>341</v>
+      </c>
+      <c r="L65" s="134"/>
+      <c r="M65" s="135"/>
+    </row>
+    <row r="66" spans="2:13" ht="94.5">
+      <c r="B66" s="132" t="s">
+        <v>342</v>
+      </c>
+      <c r="C66" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="D66" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E66" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="I44" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="J44" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K44" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L44" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M44" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="94.5">
-      <c r="B45" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="J45" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K45" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L45" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="M45" s="68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="94.5">
-      <c r="B46" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="J46" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="L46" s="66"/>
-      <c r="M46" s="68"/>
-    </row>
-    <row r="47" spans="2:13" ht="121.5">
-      <c r="B47" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="I47" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="J47" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="L47" s="66"/>
-      <c r="M47" s="68"/>
-    </row>
-    <row r="48" spans="2:13" ht="122.25" thickBot="1">
-      <c r="B48" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="H48" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="J48" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="K48" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="L48" s="70"/>
-      <c r="M48" s="72"/>
-    </row>
+      <c r="G66" s="134" t="s">
+        <v>313</v>
+      </c>
+      <c r="H66" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="I66" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="J66" s="134" t="s">
+        <v>340</v>
+      </c>
+      <c r="K66" s="134" t="s">
+        <v>341</v>
+      </c>
+      <c r="L66" s="134"/>
+      <c r="M66" s="135"/>
+    </row>
+    <row r="67" spans="2:13" ht="108">
+      <c r="B67" s="132" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" s="134" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="134" t="s">
+        <v>348</v>
+      </c>
+      <c r="E67" s="134" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="G67" s="134" t="s">
+        <v>351</v>
+      </c>
+      <c r="H67" s="134" t="s">
+        <v>352</v>
+      </c>
+      <c r="I67" s="134" t="s">
+        <v>353</v>
+      </c>
+      <c r="J67" s="134" t="s">
+        <v>354</v>
+      </c>
+      <c r="K67" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="L67" s="134" t="s">
+        <v>355</v>
+      </c>
+      <c r="M67" s="135" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="135.75" thickBot="1">
+      <c r="B68" s="144" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="145" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="145" t="s">
+        <v>348</v>
+      </c>
+      <c r="E68" s="145" t="s">
+        <v>359</v>
+      </c>
+      <c r="F68" s="145" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" s="145" t="s">
+        <v>361</v>
+      </c>
+      <c r="H68" s="145" t="s">
+        <v>362</v>
+      </c>
+      <c r="I68" s="145" t="s">
+        <v>326</v>
+      </c>
+      <c r="J68" s="145" t="s">
+        <v>327</v>
+      </c>
+      <c r="K68" s="145" t="s">
+        <v>328</v>
+      </c>
+      <c r="L68" s="145" t="s">
+        <v>363</v>
+      </c>
+      <c r="M68" s="146" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/lab/all_Ingredient_list_cn.xlsx
+++ b/src/main/resources/excel/lab/all_Ingredient_list_cn.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="384">
   <si>
     <t>INCI Name</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Whitening cosmetics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>겔마스크-이중기능성(미백,주름)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -784,10 +780,6 @@
    1) 어린이의 손이 닿지 않는 곳에 보관할 것
    2) 직사광선을 피해서 보관할 것</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>미백주름개선이중기능성화장품</t>
-    <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
     <t>Whitening, Wrinkle improvement cosmetics</t>
@@ -1172,11 +1164,6 @@
 Protects the skin from UV rays.
 (SPF30, PA++)</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whitening, Wrinkle improvement, sunscreen cosmetics. 
-(SPF30, PA++)</t>
-    <phoneticPr fontId="70" type="noConversion"/>
   </si>
   <si>
     <t>Protects the skin from UV rays.. (SPF50+, PA+++)</t>
@@ -1767,8 +1754,95 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>탈모증상완화에 도움을 주는 기능성화장품</t>
+    <t>해당사항 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrinkle improvement cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미백주름개선이중기능성화장품</t>
     <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당사항 없음</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Whitening cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrinkle improvement cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrinkle improvement cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>미백주름개선이중기능성화장품</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당사항 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당사항 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening, Wrinkle improvement cosmetics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whitening, Wrinkle improvement, sunscreen cosmetics. 
+(SPF30, PA++)</t>
+    <phoneticPr fontId="70" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당사항 없음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Functional cosmetics that help alleviate hair loss symptoms</t>
@@ -3562,7 +3636,7 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="68" applyProtection="1">
       <alignment vertical="center"/>
@@ -3815,6 +3889,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3838,10 +3963,130 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="196" fontId="57" fillId="27" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="27" borderId="37" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="29" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="58" fillId="0" borderId="29" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="42" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="41" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="58" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="53" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="53" fillId="0" borderId="4" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="196" fontId="58" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3860,10 +4105,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3920,122 +4161,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="196" fontId="57" fillId="27" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="53" fillId="0" borderId="4" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="58" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="27" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="29" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="58" fillId="0" borderId="29" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="42" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="41" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="16" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="58" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="196" fontId="53" fillId="0" borderId="16" xfId="78" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4043,60 +4168,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="135">
@@ -5536,8 +5607,8 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
@@ -5553,23 +5624,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="84" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="68"/>
       <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="26" t="s">
         <v>29</v>
       </c>
@@ -6391,7 +6462,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
@@ -6407,11 +6478,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="84" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="69"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -6421,16 +6492,16 @@
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="26" t="s">
         <v>29</v>
       </c>
@@ -7575,7 +7646,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="A25" sqref="A25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
@@ -7587,26 +7658,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="21" t="s">
@@ -7619,464 +7690,464 @@
       <c r="F3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="131"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="134"/>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
     </row>
     <row r="12" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
     </row>
     <row r="13" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
     </row>
     <row r="14" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
     </row>
     <row r="15" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
     </row>
     <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="140"/>
     </row>
     <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
     </row>
     <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
     </row>
     <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="143"/>
     </row>
     <row r="22" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="95"/>
     </row>
     <row r="23" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="113"/>
     </row>
     <row r="24" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="95"/>
     </row>
     <row r="25" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="95"/>
     </row>
     <row r="27" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
       <c r="H27" s="105"/>
     </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="95"/>
     </row>
     <row r="29" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
       <c r="H29" s="105"/>
     </row>
     <row r="30" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="95"/>
     </row>
     <row r="31" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
       <c r="H31" s="105"/>
     </row>
     <row r="32" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="95"/>
     </row>
     <row r="33" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="110"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="124"/>
     </row>
     <row r="34" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="95"/>
     </row>
     <row r="35" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A35" s="118"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="105"/>
     </row>
     <row r="36" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="77"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="95"/>
     </row>
     <row r="37" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="95"/>
     </row>
     <row r="39" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="122"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="109"/>
     </row>
     <row r="40" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="95"/>
     </row>
     <row r="41" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="113"/>
     </row>
     <row r="42" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="95"/>
     </row>
     <row r="43" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="114"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="99"/>
     </row>
     <row r="44" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="102"/>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1"/>
     <row r="48" spans="1:8" ht="90.75" customHeight="1"/>
@@ -8086,6 +8157,30 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="34">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H15"/>
+    <mergeCell ref="A16:H21"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A44:H44"/>
@@ -8096,6 +8191,542 @@
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A37:H37"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C(주)진코스텍</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="21" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="19" customWidth="1"/>
+    <col min="2" max="8" width="9.21875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A1" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+    </row>
+    <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A4" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A5" s="103"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="145"/>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A6" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="134"/>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A8" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="95"/>
+    </row>
+    <row r="9" spans="1:8" ht="127.5" customHeight="1">
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A10" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A12" s="138"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+    </row>
+    <row r="13" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+    </row>
+    <row r="14" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
+    </row>
+    <row r="15" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A15" s="141"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+    </row>
+    <row r="16" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A16" s="135"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="137"/>
+    </row>
+    <row r="17" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="140"/>
+    </row>
+    <row r="18" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
+    </row>
+    <row r="19" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="140"/>
+    </row>
+    <row r="20" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+    </row>
+    <row r="21" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="143"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A22" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A23" s="117"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="113"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A24" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="1:8" ht="154.5" customHeight="1">
+      <c r="A25" s="118"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="113"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A26" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="95"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A27" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A28" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="95"/>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A29" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="105"/>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A30" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="1:8" ht="50.1" customHeight="1">
+      <c r="A31" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
+    </row>
+    <row r="32" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A32" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="95"/>
+    </row>
+    <row r="33" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A33" s="110"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="124"/>
+    </row>
+    <row r="34" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A34" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="95"/>
+    </row>
+    <row r="35" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="105"/>
+    </row>
+    <row r="36" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A36" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="95"/>
+    </row>
+    <row r="37" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
+    </row>
+    <row r="38" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A38" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="95"/>
+    </row>
+    <row r="39" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A39" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A40" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="95"/>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A41" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="113"/>
+    </row>
+    <row r="42" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A42" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="95"/>
+    </row>
+    <row r="43" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A43" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="99"/>
+    </row>
+    <row r="44" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A44" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="102"/>
+    </row>
+    <row r="47" spans="1:8" ht="42" customHeight="1"/>
+    <row r="48" spans="1:8" ht="90.75" customHeight="1"/>
+    <row r="51" ht="21" customHeight="1"/>
+    <row r="52" ht="47.25" customHeight="1"/>
+    <row r="53" ht="67.5" customHeight="1"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="34">
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
@@ -8133,572 +8764,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:H43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" style="19" customWidth="1"/>
-    <col min="2" max="8" width="9.21875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-    </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-    </row>
-    <row r="3" spans="1:8" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
-    </row>
-    <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A8" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-    </row>
-    <row r="11" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-    </row>
-    <row r="13" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-    </row>
-    <row r="14" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-    </row>
-    <row r="15" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-    </row>
-    <row r="16" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A16" s="89" t="e">
-        <f>IF(전성분표!#REF!="","",전성분표!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-    </row>
-    <row r="18" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-    </row>
-    <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-    </row>
-    <row r="20" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-    </row>
-    <row r="21" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A22" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-    </row>
-    <row r="23" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-    </row>
-    <row r="24" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A24" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-    </row>
-    <row r="25" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-    </row>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A26" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
-    </row>
-    <row r="27" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A27" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="105"/>
-    </row>
-    <row r="28" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A28" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-    </row>
-    <row r="29" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A29" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="105"/>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A30" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77"/>
-    </row>
-    <row r="31" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A31" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="105"/>
-    </row>
-    <row r="32" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A32" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
-    </row>
-    <row r="33" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="110"/>
-    </row>
-    <row r="34" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A34" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-    </row>
-    <row r="35" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A35" s="118"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="105"/>
-    </row>
-    <row r="36" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A36" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A37" s="124" t="str">
-        <f>IF(B3="","",VLOOKUP(B3,#REF!,3,0))</f>
-        <v/>
-      </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="126"/>
-    </row>
-    <row r="38" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A38" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
-    </row>
-    <row r="39" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A39" s="119" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="122"/>
-    </row>
-    <row r="40" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A40" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
-    </row>
-    <row r="41" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A41" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
-    </row>
-    <row r="42" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A42" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="77"/>
-    </row>
-    <row r="43" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A43" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="114"/>
-    </row>
-    <row r="44" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A44" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="117"/>
-    </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1"/>
-    <row r="48" spans="1:8" ht="90.75" customHeight="1"/>
-    <row r="51" ht="21" customHeight="1"/>
-    <row r="52" ht="47.25" customHeight="1"/>
-    <row r="53" ht="67.5" customHeight="1"/>
-  </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="34">
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H15"/>
-    <mergeCell ref="A16:H21"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:H40"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C(주)진코스텍</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" max="16383" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8706,8 +8771,8 @@
   </sheetPr>
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8769,7 +8834,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="121.5">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="71" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="65" t="s">
@@ -8793,21 +8858,21 @@
       <c r="I4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="72" t="s">
         <v>154</v>
       </c>
       <c r="K4" s="65" t="s">
         <v>155</v>
       </c>
       <c r="L4" s="65" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="M4" s="67" t="s">
-        <v>78</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="108">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="65" t="s">
@@ -8831,7 +8896,7 @@
       <c r="I5" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="130" t="s">
+      <c r="J5" s="72" t="s">
         <v>158</v>
       </c>
       <c r="K5" s="65" t="s">
@@ -8841,11 +8906,11 @@
         <v>84</v>
       </c>
       <c r="M5" s="67" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="108">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="71" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="65" t="s">
@@ -8869,7 +8934,7 @@
       <c r="I6" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="130" t="s">
+      <c r="J6" s="72" t="s">
         <v>164</v>
       </c>
       <c r="K6" s="65" t="s">
@@ -8879,21 +8944,21 @@
         <v>88</v>
       </c>
       <c r="M6" s="67" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="108">
+      <c r="B7" s="71" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="108">
-      <c r="B7" s="129" t="s">
+      <c r="C7" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>169</v>
       </c>
       <c r="F7" s="66" t="s">
         <v>89</v>
@@ -8907,25 +8972,25 @@
       <c r="I7" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="130" t="s">
-        <v>170</v>
+      <c r="J7" s="72" t="s">
+        <v>169</v>
       </c>
       <c r="K7" s="65" t="s">
         <v>159</v>
       </c>
       <c r="L7" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="94.5">
+      <c r="B8" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>171</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="94.5">
-      <c r="B8" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>173</v>
       </c>
       <c r="D8" s="66" t="s">
         <v>78</v>
@@ -8943,27 +9008,27 @@
         <v>91</v>
       </c>
       <c r="I8" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="L8" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="94.5">
+      <c r="B9" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>175</v>
-      </c>
-      <c r="K8" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="L8" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="94.5">
-      <c r="B9" s="131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>177</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>81</v>
@@ -8981,13 +9046,13 @@
         <v>91</v>
       </c>
       <c r="I9" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="65" t="s">
         <v>174</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>176</v>
       </c>
       <c r="L9" s="65" t="s">
         <v>84</v>
@@ -8997,11 +9062,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="94.5">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="73" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>94</v>
@@ -9019,33 +9084,33 @@
         <v>91</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J10" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L10" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M10" s="67" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="94.5">
-      <c r="B11" s="131" t="s">
-        <v>182</v>
+      <c r="B11" s="73" t="s">
+        <v>180</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="66" t="s">
         <v>89</v>
@@ -9057,27 +9122,27 @@
         <v>91</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L11" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M11" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="94.5">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="73" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>78</v>
@@ -9095,27 +9160,27 @@
         <v>98</v>
       </c>
       <c r="I12" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="94.5">
+      <c r="B13" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>186</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="94.5">
-      <c r="B13" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>188</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>81</v>
@@ -9133,13 +9198,13 @@
         <v>98</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L13" s="65" t="s">
         <v>84</v>
@@ -9149,11 +9214,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="94.5">
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="73" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>94</v>
@@ -9171,33 +9236,33 @@
         <v>98</v>
       </c>
       <c r="I14" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="65" t="s">
         <v>189</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="65" t="s">
-        <v>191</v>
       </c>
       <c r="L14" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M14" s="67" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="94.5">
-      <c r="B15" s="131" t="s">
-        <v>192</v>
+      <c r="B15" s="73" t="s">
+        <v>190</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="66" t="s">
         <v>89</v>
@@ -9209,179 +9274,179 @@
         <v>98</v>
       </c>
       <c r="I15" s="65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J15" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K15" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L15" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M15" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="94.5">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="I16" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="134" t="s">
+      <c r="J16" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="134" t="s">
+      <c r="K16" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="134" t="s">
+      <c r="L16" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="M16" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="94.5">
+      <c r="B17" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="135" t="s">
+      <c r="C17" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="135" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="94.5">
-      <c r="B17" s="132" t="s">
+      <c r="D17" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="H17" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="133" t="s">
+      <c r="J17" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="134" t="s">
+    </row>
+    <row r="18" spans="2:13" ht="94.5">
+      <c r="B18" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="134" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="135" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="94.5">
-      <c r="B18" s="132" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="133" t="s">
+      <c r="K18" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="134" t="s">
+    </row>
+    <row r="19" spans="2:13" ht="94.5">
+      <c r="B19" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="134" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="H18" s="134" t="s">
+      <c r="C19" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="134" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="K18" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="L18" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="135" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="94.5">
-      <c r="B19" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="133" t="s">
+      <c r="K19" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="108">
+      <c r="B20" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="134" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="134" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="134" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="108">
-      <c r="B20" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>212</v>
       </c>
       <c r="D20" s="66" t="s">
         <v>78</v>
@@ -9399,27 +9464,27 @@
         <v>102</v>
       </c>
       <c r="I20" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J20" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K20" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L20" s="65" t="s">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="M20" s="67" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="108">
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="73" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" s="66" t="s">
         <v>81</v>
@@ -9440,20 +9505,20 @@
         <v>103</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L21" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M21" s="67" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="108">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="73" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="65" t="s">
@@ -9475,33 +9540,33 @@
         <v>102</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J22" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K22" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L22" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M22" s="67" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="108">
-      <c r="B23" s="131" t="s">
-        <v>215</v>
+      <c r="B23" s="73" t="s">
+        <v>213</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D23" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="66" t="s">
         <v>89</v>
@@ -9513,27 +9578,27 @@
         <v>102</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J23" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K23" s="65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L23" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M23" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="108">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="71" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D24" s="66" t="s">
         <v>78</v>
@@ -9551,27 +9616,27 @@
         <v>108</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="130" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>217</v>
       </c>
       <c r="K24" s="65" t="s">
         <v>159</v>
       </c>
       <c r="L24" s="65" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="M24" s="67" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="108">
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D25" s="66" t="s">
         <v>81</v>
@@ -9580,7 +9645,7 @@
         <v>82</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="65" t="s">
         <v>110</v>
@@ -9589,27 +9654,27 @@
         <v>108</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="J25" s="130" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>217</v>
       </c>
       <c r="K25" s="65" t="s">
         <v>159</v>
       </c>
       <c r="L25" s="65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M25" s="67" t="s">
-        <v>160</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="108">
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="71" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="66" t="s">
         <v>94</v>
@@ -9627,10 +9692,10 @@
         <v>108</v>
       </c>
       <c r="I26" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="130" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="J26" s="72" t="s">
+        <v>217</v>
       </c>
       <c r="K26" s="65" t="s">
         <v>159</v>
@@ -9639,24 +9704,24 @@
         <v>88</v>
       </c>
       <c r="M26" s="67" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="108">
-      <c r="B27" s="129" t="s">
-        <v>224</v>
+      <c r="B27" s="71" t="s">
+        <v>222</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D27" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G27" s="65" t="s">
         <v>110</v>
@@ -9665,27 +9730,27 @@
         <v>108</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="130" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>217</v>
       </c>
       <c r="K27" s="65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L27" s="65" t="s">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="M27" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="94.5">
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="73" t="s">
         <v>113</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D28" s="66" t="s">
         <v>78</v>
@@ -9703,27 +9768,27 @@
         <v>114</v>
       </c>
       <c r="I28" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J28" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K28" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L28" s="65" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="M28" s="67" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="94.5">
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="73" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" s="66" t="s">
         <v>81</v>
@@ -9735,19 +9800,19 @@
         <v>116</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H29" s="66" t="s">
         <v>114</v>
       </c>
       <c r="I29" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J29" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K29" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L29" s="65" t="s">
         <v>84</v>
@@ -9757,11 +9822,11 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="94.5">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="73" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="66" t="s">
         <v>94</v>
@@ -9773,71 +9838,71 @@
         <v>116</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H30" s="66" t="s">
         <v>114</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K30" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L30" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="67" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="94.5">
-      <c r="B31" s="131" t="s">
-        <v>232</v>
+      <c r="B31" s="73" t="s">
+        <v>230</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D31" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="66" t="s">
         <v>116</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K31" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L31" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="94.5">
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="73" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" s="66" t="s">
         <v>78</v>
@@ -9855,27 +9920,27 @@
         <v>119</v>
       </c>
       <c r="I32" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K32" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L32" s="65" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="M32" s="67" t="s">
-        <v>78</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="94.5">
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="73" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D33" s="66" t="s">
         <v>81</v>
@@ -9887,19 +9952,19 @@
         <v>116</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H33" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K33" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L33" s="65" t="s">
         <v>84</v>
@@ -9909,11 +9974,11 @@
       </c>
     </row>
     <row r="34" spans="2:13" ht="94.5">
-      <c r="B34" s="131" t="s">
+      <c r="B34" s="73" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D34" s="66" t="s">
         <v>94</v>
@@ -9925,71 +9990,71 @@
         <v>116</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H34" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J34" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K34" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L34" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M34" s="67" t="s">
-        <v>165</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="94.5">
-      <c r="B35" s="131" t="s">
-        <v>239</v>
+      <c r="B35" s="73" t="s">
+        <v>237</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D35" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="66" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H35" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I35" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J35" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K35" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L35" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M35" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="94.5">
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="73" t="s">
         <v>122</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D36" s="66" t="s">
         <v>78</v>
@@ -10007,27 +10072,27 @@
         <v>119</v>
       </c>
       <c r="I36" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J36" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K36" s="65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="M36" s="67" t="s">
-        <v>78</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="94.5">
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="73" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D37" s="66" t="s">
         <v>81</v>
@@ -10039,33 +10104,33 @@
         <v>116</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H37" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I37" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J37" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K37" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L37" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M37" s="67" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="94.5">
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="73" t="s">
         <v>124</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D38" s="66" t="s">
         <v>94</v>
@@ -10077,105 +10142,105 @@
         <v>116</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H38" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I38" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J38" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K38" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L38" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M38" s="67" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="94.5">
-      <c r="B39" s="131" t="s">
-        <v>244</v>
+      <c r="B39" s="73" t="s">
+        <v>242</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="65" t="s">
         <v>168</v>
-      </c>
-      <c r="E39" s="65" t="s">
-        <v>169</v>
       </c>
       <c r="F39" s="66" t="s">
         <v>116</v>
       </c>
       <c r="G39" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H39" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K39" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L39" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M39" s="67" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="94.5">
-      <c r="B40" s="131" t="s">
+      <c r="B40" s="73" t="s">
         <v>125</v>
       </c>
       <c r="C40" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="E40" s="65" t="s">
         <v>246</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>248</v>
       </c>
       <c r="F40" s="66" t="s">
         <v>116</v>
       </c>
       <c r="G40" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H40" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I40" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J40" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K40" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L40" s="65" t="s">
         <v>126</v>
       </c>
       <c r="M40" s="67" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="94.5">
-      <c r="B41" s="131" t="s">
+      <c r="B41" s="73" t="s">
         <v>127</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -10185,77 +10250,77 @@
         <v>129</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F41" s="66" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H41" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J41" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K41" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L41" s="65" t="s">
         <v>131</v>
       </c>
       <c r="M41" s="67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="94.5">
+      <c r="B42" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="66" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" ht="94.5">
-      <c r="B42" s="131" t="s">
+      <c r="E42" s="65" t="s">
         <v>252</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>255</v>
       </c>
       <c r="F42" s="66" t="s">
         <v>130</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H42" s="66" t="s">
         <v>119</v>
       </c>
       <c r="I42" s="65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J42" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K42" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L42" s="65" t="s">
         <v>132</v>
       </c>
       <c r="M42" s="67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="94.5">
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="73" t="s">
         <v>133</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D43" s="66" t="s">
         <v>78</v>
@@ -10276,24 +10341,24 @@
         <v>135</v>
       </c>
       <c r="J43" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K43" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L43" s="65" t="s">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="M43" s="67" t="s">
-        <v>78</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="94.5">
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="73" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D44" s="66" t="s">
         <v>81</v>
@@ -10305,7 +10370,7 @@
         <v>116</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H44" s="66" t="s">
         <v>134</v>
@@ -10314,24 +10379,24 @@
         <v>135</v>
       </c>
       <c r="J44" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K44" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L44" s="65" t="s">
         <v>84</v>
       </c>
       <c r="M44" s="67" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="94.5">
-      <c r="B45" s="131" t="s">
+      <c r="B45" s="73" t="s">
         <v>137</v>
       </c>
       <c r="C45" s="65" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D45" s="66" t="s">
         <v>94</v>
@@ -10343,7 +10408,7 @@
         <v>116</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H45" s="66" t="s">
         <v>134</v>
@@ -10352,36 +10417,36 @@
         <v>135</v>
       </c>
       <c r="J45" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K45" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L45" s="65" t="s">
         <v>88</v>
       </c>
       <c r="M45" s="67" t="s">
-        <v>165</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="94.5">
-      <c r="B46" s="131" t="s">
-        <v>260</v>
+      <c r="B46" s="73" t="s">
+        <v>257</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D46" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>116</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H46" s="66" t="s">
         <v>134</v>
@@ -10390,24 +10455,24 @@
         <v>135</v>
       </c>
       <c r="J46" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K46" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L46" s="65" t="s">
         <v>96</v>
       </c>
       <c r="M46" s="67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="94.5">
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="73" t="s">
         <v>138</v>
       </c>
       <c r="C47" s="65" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D47" s="66" t="s">
         <v>78</v>
@@ -10425,27 +10490,27 @@
         <v>139</v>
       </c>
       <c r="I47" s="65" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J47" s="65" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K47" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L47" s="65" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="M47" s="67" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="94.5">
-      <c r="B48" s="131" t="s">
+      <c r="B48" s="73" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D48" s="66" t="s">
         <v>78</v>
@@ -10463,27 +10528,27 @@
         <v>141</v>
       </c>
       <c r="I48" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="J48" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="L48" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" s="67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="94.5">
+      <c r="B49" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="65" t="s">
         <v>263</v>
-      </c>
-      <c r="J48" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="K48" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="L48" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="M48" s="67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="94.5">
-      <c r="B49" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>266</v>
       </c>
       <c r="D49" s="66" t="s">
         <v>78</v>
@@ -10501,23 +10566,23 @@
         <v>143</v>
       </c>
       <c r="I49" s="65" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J49" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K49" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="M49" s="67" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="94.5">
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="73" t="s">
         <v>144</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -10539,23 +10604,27 @@
         <v>146</v>
       </c>
       <c r="I50" s="65" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J50" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K50" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="L50" s="65"/>
-      <c r="M50" s="67"/>
+        <v>174</v>
+      </c>
+      <c r="L50" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" s="67" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="51" spans="2:13" ht="121.5">
-      <c r="B51" s="131" t="s">
+      <c r="B51" s="73" t="s">
         <v>147</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D51" s="66" t="s">
         <v>78</v>
@@ -10573,641 +10642,665 @@
         <v>148</v>
       </c>
       <c r="I51" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="K51" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="L51" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="M51" s="67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="122.25" thickBot="1">
+      <c r="B52" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="J51" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="K51" s="65" t="s">
+      <c r="J52" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="K52" s="80" t="s">
+        <v>267</v>
+      </c>
+      <c r="L52" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="M52" s="67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="95.25" thickTop="1">
+      <c r="B53" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="L51" s="65"/>
-      <c r="M51" s="67"/>
-    </row>
-    <row r="52" spans="2:13" ht="122.25" thickBot="1">
-      <c r="B52" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="138" t="s">
+      <c r="C53" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="D52" s="139" t="s">
+      <c r="D53" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="J53" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="K53" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="L53" s="83" t="s">
+        <v>367</v>
+      </c>
+      <c r="M53" s="84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="94.5">
+      <c r="B54" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H54" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="I54" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="J54" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="K54" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" s="77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="121.5">
+      <c r="B55" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="D55" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F55" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="I55" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="J55" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="K55" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="L55" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M55" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="121.5">
+      <c r="B56" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="L56" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" s="77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="108">
+      <c r="B57" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="D57" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="G57" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="H57" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="I57" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="J57" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="L57" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M57" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="108">
+      <c r="B58" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="I58" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="J58" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="K58" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="L58" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" s="77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="108">
+      <c r="B59" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="F59" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="H59" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="I59" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="J59" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="K59" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="L59" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M59" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="108">
+      <c r="B60" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H60" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="J60" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="K60" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60" s="77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="148.5">
+      <c r="B61" s="74" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="139" t="s">
+      <c r="E61" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="139" t="s">
+      <c r="G61" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="H61" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="I61" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="J61" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="K61" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="L61" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M61" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="121.5">
+      <c r="B62" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="139" t="s">
+      <c r="E62" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="139" t="s">
-        <v>150</v>
-      </c>
-      <c r="I52" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="J52" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="K52" s="138" t="s">
-        <v>270</v>
-      </c>
-      <c r="L52" s="138"/>
-      <c r="M52" s="140"/>
-    </row>
-    <row r="53" spans="2:13" ht="95.25" thickTop="1">
-      <c r="B53" s="141" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="142" t="s">
-        <v>274</v>
-      </c>
-      <c r="D53" s="142" t="s">
+      <c r="G62" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="H62" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="I62" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="E53" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="F53" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="G53" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="H53" s="142" t="s">
-        <v>276</v>
-      </c>
-      <c r="I53" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="J53" s="142" t="s">
-        <v>278</v>
-      </c>
-      <c r="K53" s="142" t="s">
-        <v>176</v>
-      </c>
-      <c r="L53" s="142" t="s">
-        <v>275</v>
-      </c>
-      <c r="M53" s="143" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="94.5">
-      <c r="B54" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="C54" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="134" t="s">
-        <v>282</v>
-      </c>
-      <c r="H54" s="134" t="s">
-        <v>283</v>
-      </c>
-      <c r="I54" s="134" t="s">
+      <c r="K62" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="L62" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M62" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="135">
+      <c r="B63" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="J54" s="134" t="s">
-        <v>278</v>
-      </c>
-      <c r="K54" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="L54" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="M54" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="121.5">
-      <c r="B55" s="132" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55" s="134" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F55" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="G55" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="H55" s="134" t="s">
-        <v>288</v>
-      </c>
-      <c r="I55" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="J55" s="134" t="s">
-        <v>278</v>
-      </c>
-      <c r="K55" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="L55" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="M55" s="135" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="121.5">
-      <c r="B56" s="132" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" s="134" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="134" t="s">
-        <v>282</v>
-      </c>
-      <c r="H56" s="134" t="s">
-        <v>288</v>
-      </c>
-      <c r="I56" s="134" t="s">
-        <v>289</v>
-      </c>
-      <c r="J56" s="134" t="s">
-        <v>293</v>
-      </c>
-      <c r="K56" s="134" t="s">
-        <v>290</v>
-      </c>
-      <c r="L56" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="M56" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="108">
-      <c r="B57" s="132" t="s">
-        <v>294</v>
-      </c>
-      <c r="C57" s="134" t="s">
-        <v>295</v>
-      </c>
-      <c r="D57" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="E57" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="F57" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="G57" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="H57" s="134" t="s">
-        <v>296</v>
-      </c>
-      <c r="I57" s="134" t="s">
-        <v>297</v>
-      </c>
-      <c r="J57" s="134" t="s">
-        <v>298</v>
-      </c>
-      <c r="K57" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="L57" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="M57" s="135" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="108">
-      <c r="B58" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" s="134" t="s">
-        <v>301</v>
-      </c>
-      <c r="D58" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="134" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="134" t="s">
-        <v>282</v>
-      </c>
-      <c r="H58" s="134" t="s">
-        <v>302</v>
-      </c>
-      <c r="I58" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="J58" s="134" t="s">
-        <v>304</v>
-      </c>
-      <c r="K58" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="L58" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="M58" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="108">
-      <c r="B59" s="132" t="s">
-        <v>305</v>
-      </c>
-      <c r="C59" s="134" t="s">
-        <v>306</v>
-      </c>
-      <c r="D59" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="E59" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="F59" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="G59" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="H59" s="134" t="s">
-        <v>307</v>
-      </c>
-      <c r="I59" s="134" t="s">
-        <v>308</v>
-      </c>
-      <c r="J59" s="134" t="s">
-        <v>304</v>
-      </c>
-      <c r="K59" s="134" t="s">
-        <v>299</v>
-      </c>
-      <c r="L59" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="M59" s="135" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" ht="108">
-      <c r="B60" s="132" t="s">
-        <v>309</v>
-      </c>
-      <c r="C60" s="134" t="s">
+      <c r="F63" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="D60" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="F60" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="134" t="s">
-        <v>282</v>
-      </c>
-      <c r="H60" s="134" t="s">
-        <v>307</v>
-      </c>
-      <c r="I60" s="134" t="s">
-        <v>308</v>
-      </c>
-      <c r="J60" s="134" t="s">
-        <v>304</v>
-      </c>
-      <c r="K60" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="L60" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="M60" s="135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" ht="148.5">
-      <c r="B61" s="132" t="s">
-        <v>311</v>
-      </c>
-      <c r="C61" s="134" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61" s="134" t="s">
+      <c r="H63" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="I63" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="J63" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="K63" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="L63" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M63" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="108">
+      <c r="B64" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F61" s="134" t="s">
+      <c r="E64" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F64" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G61" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="H61" s="134" t="s">
-        <v>314</v>
-      </c>
-      <c r="I61" s="134" t="s">
-        <v>315</v>
-      </c>
-      <c r="J61" s="134" t="s">
-        <v>316</v>
-      </c>
-      <c r="K61" s="134" t="s">
-        <v>317</v>
-      </c>
-      <c r="L61" s="134" t="s">
+      <c r="G64" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="I64" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="J64" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="K64" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="L64" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M64" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="94.5">
+      <c r="B65" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="M61" s="135" t="s">
+      <c r="E65" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" s="76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="2:13" ht="121.5">
-      <c r="B62" s="132" t="s">
-        <v>318</v>
-      </c>
-      <c r="C62" s="134" t="s">
-        <v>319</v>
-      </c>
-      <c r="D62" s="134" t="s">
+      <c r="G65" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="H65" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="I65" s="76" t="s">
+        <v>336</v>
+      </c>
+      <c r="J65" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="K65" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="L65" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M65" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="94.5">
+      <c r="B66" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C66" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="D66" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F62" s="134" t="s">
+      <c r="E66" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F66" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="H62" s="134" t="s">
-        <v>320</v>
-      </c>
-      <c r="I62" s="134" t="s">
-        <v>321</v>
-      </c>
-      <c r="J62" s="134" t="s">
-        <v>278</v>
-      </c>
-      <c r="K62" s="134" t="s">
-        <v>322</v>
-      </c>
-      <c r="L62" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="M62" s="135" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" ht="135">
-      <c r="B63" s="132" t="s">
+      <c r="G66" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="I66" s="76" t="s">
+        <v>342</v>
+      </c>
+      <c r="J66" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="K66" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="L66" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="M66" s="77" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="108">
+      <c r="B67" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D67" s="76" t="s">
+        <v>345</v>
+      </c>
+      <c r="E67" s="76" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="G67" s="76" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="J67" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="K67" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="L67" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="M67" s="77" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="135.75" thickBot="1">
+      <c r="B68" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="C68" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="D68" s="86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="F68" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="G68" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="H68" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="I68" s="86" t="s">
         <v>323</v>
       </c>
-      <c r="C63" s="134" t="s">
+      <c r="J68" s="86" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F63" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="H63" s="134" t="s">
+      <c r="K68" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="I63" s="134" t="s">
-        <v>326</v>
-      </c>
-      <c r="J63" s="134" t="s">
-        <v>327</v>
-      </c>
-      <c r="K63" s="134" t="s">
-        <v>328</v>
-      </c>
-      <c r="L63" s="134"/>
-      <c r="M63" s="135"/>
-    </row>
-    <row r="64" spans="2:13" ht="108">
-      <c r="B64" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="C64" s="134" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F64" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="H64" s="134" t="s">
-        <v>331</v>
-      </c>
-      <c r="I64" s="134" t="s">
-        <v>332</v>
-      </c>
-      <c r="J64" s="134" t="s">
-        <v>333</v>
-      </c>
-      <c r="K64" s="134" t="s">
-        <v>334</v>
-      </c>
-      <c r="L64" s="134"/>
-      <c r="M64" s="135"/>
-    </row>
-    <row r="65" spans="2:13" ht="94.5">
-      <c r="B65" s="132" t="s">
-        <v>335</v>
-      </c>
-      <c r="C65" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F65" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="134" t="s">
-        <v>337</v>
-      </c>
-      <c r="H65" s="134" t="s">
-        <v>338</v>
-      </c>
-      <c r="I65" s="134" t="s">
-        <v>339</v>
-      </c>
-      <c r="J65" s="134" t="s">
-        <v>340</v>
-      </c>
-      <c r="K65" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="L65" s="134"/>
-      <c r="M65" s="135"/>
-    </row>
-    <row r="66" spans="2:13" ht="94.5">
-      <c r="B66" s="132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="134" t="s">
-        <v>343</v>
-      </c>
-      <c r="D66" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="134" t="s">
-        <v>287</v>
-      </c>
-      <c r="F66" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="134" t="s">
-        <v>313</v>
-      </c>
-      <c r="H66" s="134" t="s">
-        <v>344</v>
-      </c>
-      <c r="I66" s="134" t="s">
-        <v>345</v>
-      </c>
-      <c r="J66" s="134" t="s">
-        <v>340</v>
-      </c>
-      <c r="K66" s="134" t="s">
-        <v>341</v>
-      </c>
-      <c r="L66" s="134"/>
-      <c r="M66" s="135"/>
-    </row>
-    <row r="67" spans="2:13" ht="108">
-      <c r="B67" s="132" t="s">
-        <v>346</v>
-      </c>
-      <c r="C67" s="134" t="s">
-        <v>347</v>
-      </c>
-      <c r="D67" s="134" t="s">
-        <v>348</v>
-      </c>
-      <c r="E67" s="134" t="s">
-        <v>349</v>
-      </c>
-      <c r="F67" s="134" t="s">
-        <v>350</v>
-      </c>
-      <c r="G67" s="134" t="s">
-        <v>351</v>
-      </c>
-      <c r="H67" s="134" t="s">
+      <c r="L68" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="I67" s="134" t="s">
+      <c r="M68" s="87" t="s">
         <v>353</v>
-      </c>
-      <c r="J67" s="134" t="s">
-        <v>354</v>
-      </c>
-      <c r="K67" s="134" t="s">
-        <v>334</v>
-      </c>
-      <c r="L67" s="134" t="s">
-        <v>355</v>
-      </c>
-      <c r="M67" s="135" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" ht="135.75" thickBot="1">
-      <c r="B68" s="144" t="s">
-        <v>357</v>
-      </c>
-      <c r="C68" s="145" t="s">
-        <v>358</v>
-      </c>
-      <c r="D68" s="145" t="s">
-        <v>348</v>
-      </c>
-      <c r="E68" s="145" t="s">
-        <v>359</v>
-      </c>
-      <c r="F68" s="145" t="s">
-        <v>360</v>
-      </c>
-      <c r="G68" s="145" t="s">
-        <v>361</v>
-      </c>
-      <c r="H68" s="145" t="s">
-        <v>362</v>
-      </c>
-      <c r="I68" s="145" t="s">
-        <v>326</v>
-      </c>
-      <c r="J68" s="145" t="s">
-        <v>327</v>
-      </c>
-      <c r="K68" s="145" t="s">
-        <v>328</v>
-      </c>
-      <c r="L68" s="145" t="s">
-        <v>363</v>
-      </c>
-      <c r="M68" s="146" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="14.25" thickTop="1"/>
